--- a/Testing/CPS/CPS_CAS 68213-23-0.xlsx
+++ b/Testing/CPS/CPS_CAS 68213-23-0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arche/Documents/Python/C2Cautomatisation/Testing/CPS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C193AA49-18E9-B949-B9DF-FDF9892C526C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE5CB3F-7A82-BB4C-9D31-828E7E18AAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="760" windowWidth="28800" windowHeight="17260" xr2:uid="{3C56F46D-DC3B-084F-85E6-93BFE5128AAE}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="148">
   <si>
     <t>Arche</t>
   </si>
@@ -479,6 +479,12 @@
   </si>
   <si>
     <t>Sarah Lentink</t>
+  </si>
+  <si>
+    <t>Own</t>
+  </si>
+  <si>
+    <t>MAK III 1</t>
   </si>
 </sst>
 </file>
@@ -3741,8 +3747,8 @@
   </sheetPr>
   <dimension ref="A1:L156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3967,12 +3973,14 @@
         <v>25</v>
       </c>
       <c r="C18" s="89" t="s">
-        <v>26</v>
+        <v>147</v>
       </c>
       <c r="D18" s="90"/>
       <c r="E18" s="90"/>
       <c r="F18" s="91"/>
-      <c r="H18" s="24"/>
+      <c r="H18" s="24" t="s">
+        <v>146</v>
+      </c>
       <c r="I18" s="25"/>
       <c r="J18" s="23"/>
       <c r="K18" s="92"/>
